--- a/サンプルプロジェクト/サンプルプロジェクト開発ガイド/設計工程/class-diagram.xlsx
+++ b/サンプルプロジェクト/サンプルプロジェクト開発ガイド/設計工程/class-diagram.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBB898-5584-45FF-BFF5-8B0CBD136C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18315" windowHeight="6885"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,6 +90,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -110,7 +114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -190,7 +200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -270,7 +286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -350,7 +372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -445,7 +473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -538,7 +572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -614,7 +654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -709,7 +755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="フローチャート : 書類 9"/>
+        <xdr:cNvPr id="10" name="フローチャート : 書類 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -794,7 +846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="フローチャート : 書類 10"/>
+        <xdr:cNvPr id="11" name="フローチャート : 書類 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -879,7 +937,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -934,7 +998,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="7" idx="0"/>
@@ -989,7 +1059,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -1044,7 +1120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="6" idx="0"/>
@@ -1099,7 +1181,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="0"/>
           <a:endCxn id="6" idx="2"/>
@@ -1156,7 +1244,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="0"/>
           <a:endCxn id="6" idx="2"/>
@@ -1213,7 +1307,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -1268,7 +1368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1348,7 +1454,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1428,7 +1540,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
           <a:endCxn id="10" idx="3"/>
@@ -1483,7 +1601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1579,7 +1703,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -1634,7 +1764,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1730,7 +1866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="1"/>
           <a:endCxn id="4" idx="3"/>
@@ -2102,12 +2244,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
